--- a/natmiOut/OldD2/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.6073597953393</v>
+        <v>50.6391945</v>
       </c>
       <c r="H2">
-        <v>50.6073597953393</v>
+        <v>101.278389</v>
       </c>
       <c r="I2">
-        <v>0.5421618622715959</v>
+        <v>0.5364920657213447</v>
       </c>
       <c r="J2">
-        <v>0.5421618622715959</v>
+        <v>0.4366943366889108</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.325460127842106</v>
+        <v>0.370512</v>
       </c>
       <c r="N2">
-        <v>0.325460127842106</v>
+        <v>0.741024</v>
       </c>
       <c r="O2">
-        <v>0.001469862473972854</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P2">
-        <v>0.001469862473972854</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q2">
-        <v>16.47067778874258</v>
+        <v>18.762429232584</v>
       </c>
       <c r="R2">
-        <v>16.47067778874258</v>
+        <v>75.049716930336</v>
       </c>
       <c r="S2">
-        <v>0.0007969033761722576</v>
+        <v>0.000879223795378108</v>
       </c>
       <c r="T2">
-        <v>0.0007969033761722576</v>
+        <v>0.0004773750771390467</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.6073597953393</v>
+        <v>50.6391945</v>
       </c>
       <c r="H3">
-        <v>50.6073597953393</v>
+        <v>101.278389</v>
       </c>
       <c r="I3">
-        <v>0.5421618622715959</v>
+        <v>0.5364920657213447</v>
       </c>
       <c r="J3">
-        <v>0.5421618622715959</v>
+        <v>0.4366943366889108</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>120.713024122564</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N3">
-        <v>120.713024122564</v>
+        <v>0.040702</v>
       </c>
       <c r="O3">
-        <v>0.5451713715408358</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P3">
-        <v>0.5451713715408358</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q3">
-        <v>6108.967443754068</v>
+        <v>0.687038831513</v>
       </c>
       <c r="R3">
-        <v>6108.967443754068</v>
+        <v>4.122232989078</v>
       </c>
       <c r="S3">
-        <v>0.2955711260517397</v>
+        <v>3.219523876822681E-05</v>
       </c>
       <c r="T3">
-        <v>0.2955711260517397</v>
+        <v>2.622063575500049E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.6073597953393</v>
+        <v>50.6391945</v>
       </c>
       <c r="H4">
-        <v>50.6073597953393</v>
+        <v>101.278389</v>
       </c>
       <c r="I4">
-        <v>0.5421618622715959</v>
+        <v>0.5364920657213447</v>
       </c>
       <c r="J4">
-        <v>0.5421618622715959</v>
+        <v>0.4366943366889108</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>100.383678438344</v>
+        <v>124.6539663333333</v>
       </c>
       <c r="N4">
-        <v>100.383678438344</v>
+        <v>373.961899</v>
       </c>
       <c r="O4">
-        <v>0.4533587659851912</v>
+        <v>0.5513659638308388</v>
       </c>
       <c r="P4">
-        <v>0.4533587659851912</v>
+        <v>0.5516673283636507</v>
       </c>
       <c r="Q4">
-        <v>5080.152932308919</v>
+        <v>6312.376446350119</v>
       </c>
       <c r="R4">
-        <v>5080.152932308919</v>
+        <v>37874.25867810071</v>
       </c>
       <c r="S4">
-        <v>0.2457938328436839</v>
+        <v>0.2958034649040469</v>
       </c>
       <c r="T4">
-        <v>0.2457938328436839</v>
+        <v>0.240909998032708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.535825600255992</v>
+        <v>50.6391945</v>
       </c>
       <c r="H5">
-        <v>0.535825600255992</v>
+        <v>101.278389</v>
       </c>
       <c r="I5">
-        <v>0.005740354890324439</v>
+        <v>0.5364920657213447</v>
       </c>
       <c r="J5">
-        <v>0.005740354890324439</v>
+        <v>0.4366943366889108</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.325460127842106</v>
+        <v>100.6318613333333</v>
       </c>
       <c r="N5">
-        <v>0.325460127842106</v>
+        <v>301.895584</v>
       </c>
       <c r="O5">
-        <v>0.001469862473972854</v>
+        <v>0.4451120557830784</v>
       </c>
       <c r="P5">
-        <v>0.001469862473972854</v>
+        <v>0.4453553442621279</v>
       </c>
       <c r="Q5">
-        <v>0.1743898683603883</v>
+        <v>5095.916398955696</v>
       </c>
       <c r="R5">
-        <v>0.1743898683603883</v>
+        <v>30575.49839373417</v>
       </c>
       <c r="S5">
-        <v>8.437532240574449E-06</v>
+        <v>0.2387990862845382</v>
       </c>
       <c r="T5">
-        <v>8.437532240574449E-06</v>
+        <v>0.1944841566534114</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.535825600255992</v>
+        <v>50.6391945</v>
       </c>
       <c r="H6">
-        <v>0.535825600255992</v>
+        <v>101.278389</v>
       </c>
       <c r="I6">
-        <v>0.005740354890324439</v>
+        <v>0.5364920657213447</v>
       </c>
       <c r="J6">
-        <v>0.005740354890324439</v>
+        <v>0.4366943366889108</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>120.713024122564</v>
+        <v>0.4121773333333333</v>
       </c>
       <c r="N6">
-        <v>120.713024122564</v>
+        <v>1.236532</v>
       </c>
       <c r="O6">
-        <v>0.5451713715408358</v>
+        <v>0.001823131339879293</v>
       </c>
       <c r="P6">
-        <v>0.5451713715408358</v>
+        <v>0.001824127823450168</v>
       </c>
       <c r="Q6">
-        <v>64.6811286091889</v>
+        <v>20.872328151158</v>
       </c>
       <c r="R6">
-        <v>64.6811286091889</v>
+        <v>125.233968906948</v>
       </c>
       <c r="S6">
-        <v>0.003129477148689319</v>
+        <v>0.0009780954986131647</v>
       </c>
       <c r="T6">
-        <v>0.003129477148689319</v>
+        <v>0.0007965862898973578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.535825600255992</v>
+        <v>0.667119</v>
       </c>
       <c r="H7">
-        <v>0.535825600255992</v>
+        <v>2.001357</v>
       </c>
       <c r="I7">
-        <v>0.005740354890324439</v>
+        <v>0.007067727951161579</v>
       </c>
       <c r="J7">
-        <v>0.005740354890324439</v>
+        <v>0.008629494171680676</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>100.383678438344</v>
+        <v>0.370512</v>
       </c>
       <c r="N7">
-        <v>100.383678438344</v>
+        <v>0.741024</v>
       </c>
       <c r="O7">
-        <v>0.4533587659851912</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P7">
-        <v>0.4533587659851912</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q7">
-        <v>53.78814475513016</v>
+        <v>0.247175594928</v>
       </c>
       <c r="R7">
-        <v>53.78814475513016</v>
+        <v>1.483053569568</v>
       </c>
       <c r="S7">
-        <v>0.002602440209394545</v>
+        <v>1.15828639246789E-05</v>
       </c>
       <c r="T7">
-        <v>0.002602440209394545</v>
+        <v>9.43338417693207E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.05881905088223</v>
+        <v>0.667119</v>
       </c>
       <c r="H8">
-        <v>4.05881905088223</v>
+        <v>2.001357</v>
       </c>
       <c r="I8">
-        <v>0.04348254688940323</v>
+        <v>0.007067727951161579</v>
       </c>
       <c r="J8">
-        <v>0.04348254688940323</v>
+        <v>0.008629494171680676</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.325460127842106</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N8">
-        <v>0.325460127842106</v>
+        <v>0.040702</v>
       </c>
       <c r="O8">
-        <v>0.001469862473972854</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P8">
-        <v>0.001469862473972854</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q8">
-        <v>1.320983767188106</v>
+        <v>0.009051025846</v>
       </c>
       <c r="R8">
-        <v>1.320983767188106</v>
+        <v>0.08145923261400001</v>
       </c>
       <c r="S8">
-        <v>6.391336394549884E-05</v>
+        <v>4.24138963976228E-07</v>
       </c>
       <c r="T8">
-        <v>6.391336394549884E-05</v>
+        <v>5.181446252341208E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,57 +971,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.05881905088223</v>
+        <v>0.667119</v>
       </c>
       <c r="H9">
-        <v>4.05881905088223</v>
+        <v>2.001357</v>
       </c>
       <c r="I9">
-        <v>0.04348254688940323</v>
+        <v>0.007067727951161579</v>
       </c>
       <c r="J9">
-        <v>0.04348254688940323</v>
+        <v>0.008629494171680676</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>120.713024122564</v>
+        <v>124.6539663333333</v>
       </c>
       <c r="N9">
-        <v>120.713024122564</v>
+        <v>373.961899</v>
       </c>
       <c r="O9">
-        <v>0.5451713715408358</v>
+        <v>0.5513659638308388</v>
       </c>
       <c r="P9">
-        <v>0.5451713715408358</v>
+        <v>0.5516673283636507</v>
       </c>
       <c r="Q9">
-        <v>489.9523219982689</v>
+        <v>83.159029366327</v>
       </c>
       <c r="R9">
-        <v>489.9523219982689</v>
+        <v>748.431264296943</v>
       </c>
       <c r="S9">
-        <v>0.02370543972578466</v>
+        <v>0.003896904633886364</v>
       </c>
       <c r="T9">
-        <v>0.02370543972578466</v>
+        <v>0.004760609994820774</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.05881905088223</v>
+        <v>0.667119</v>
       </c>
       <c r="H10">
-        <v>4.05881905088223</v>
+        <v>2.001357</v>
       </c>
       <c r="I10">
-        <v>0.04348254688940323</v>
+        <v>0.007067727951161579</v>
       </c>
       <c r="J10">
-        <v>0.04348254688940323</v>
+        <v>0.008629494171680676</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>100.383678438344</v>
+        <v>100.6318613333333</v>
       </c>
       <c r="N10">
-        <v>100.383678438344</v>
+        <v>301.895584</v>
       </c>
       <c r="O10">
-        <v>0.4533587659851912</v>
+        <v>0.4451120557830784</v>
       </c>
       <c r="P10">
-        <v>0.4533587659851912</v>
+        <v>0.4453553442621279</v>
       </c>
       <c r="Q10">
-        <v>407.4391864431864</v>
+        <v>67.133426700832</v>
       </c>
       <c r="R10">
-        <v>407.4391864431864</v>
+        <v>604.200840307488</v>
       </c>
       <c r="S10">
-        <v>0.01971319379967306</v>
+        <v>0.003145930918057056</v>
       </c>
       <c r="T10">
-        <v>0.01971319379967306</v>
+        <v>0.003843191347636873</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.18052744566125</v>
+        <v>0.667119</v>
       </c>
       <c r="H11">
-        <v>6.18052744566125</v>
+        <v>2.001357</v>
       </c>
       <c r="I11">
-        <v>0.06621262763581297</v>
+        <v>0.007067727951161579</v>
       </c>
       <c r="J11">
-        <v>0.06621262763581297</v>
+        <v>0.008629494171680676</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.325460127842106</v>
+        <v>0.4121773333333333</v>
       </c>
       <c r="N11">
-        <v>0.325460127842106</v>
+        <v>1.236532</v>
       </c>
       <c r="O11">
-        <v>0.001469862473972854</v>
+        <v>0.001823131339879293</v>
       </c>
       <c r="P11">
-        <v>0.001469862473972854</v>
+        <v>0.001824127823450168</v>
       </c>
       <c r="Q11">
-        <v>2.011515252596555</v>
+        <v>0.274971330436</v>
       </c>
       <c r="R11">
-        <v>2.011515252596555</v>
+        <v>2.474741973924</v>
       </c>
       <c r="S11">
-        <v>9.73234566650194E-05</v>
+        <v>1.288539632950354E-05</v>
       </c>
       <c r="T11">
-        <v>9.73234566650194E-05</v>
+        <v>1.574130042086378E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.18052744566125</v>
+        <v>4.321189</v>
       </c>
       <c r="H12">
-        <v>6.18052744566125</v>
+        <v>12.963567</v>
       </c>
       <c r="I12">
-        <v>0.06621262763581297</v>
+        <v>0.0457804204010858</v>
       </c>
       <c r="J12">
-        <v>0.06621262763581297</v>
+        <v>0.05589658710099796</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>120.713024122564</v>
+        <v>0.370512</v>
       </c>
       <c r="N12">
-        <v>120.713024122564</v>
+        <v>0.741024</v>
       </c>
       <c r="O12">
-        <v>0.5451713715408358</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P12">
-        <v>0.5451713715408358</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q12">
-        <v>746.0701586382753</v>
+        <v>1.601052378768</v>
       </c>
       <c r="R12">
-        <v>746.0701586382753</v>
+        <v>9.606314272608001</v>
       </c>
       <c r="S12">
-        <v>0.03609722902153881</v>
+        <v>7.502671064655523E-05</v>
       </c>
       <c r="T12">
-        <v>0.03609722902153881</v>
+        <v>6.110369505010788E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.18052744566125</v>
+        <v>4.321189</v>
       </c>
       <c r="H13">
-        <v>6.18052744566125</v>
+        <v>12.963567</v>
       </c>
       <c r="I13">
-        <v>0.06621262763581297</v>
+        <v>0.0457804204010858</v>
       </c>
       <c r="J13">
-        <v>0.06621262763581297</v>
+        <v>0.05589658710099796</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>100.383678438344</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N13">
-        <v>100.383678438344</v>
+        <v>0.040702</v>
       </c>
       <c r="O13">
-        <v>0.4533587659851912</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P13">
-        <v>0.4533587659851912</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q13">
-        <v>620.4240796846185</v>
+        <v>0.05862701155933334</v>
       </c>
       <c r="R13">
-        <v>620.4240796846185</v>
+        <v>0.5276431040340001</v>
       </c>
       <c r="S13">
-        <v>0.03001807515760914</v>
+        <v>2.747312886614641E-06</v>
       </c>
       <c r="T13">
-        <v>0.03001807515760914</v>
+        <v>3.356224084414933E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.4219376930784</v>
+        <v>4.321189</v>
       </c>
       <c r="H14">
-        <v>31.4219376930784</v>
+        <v>12.963567</v>
       </c>
       <c r="I14">
-        <v>0.336626457589482</v>
+        <v>0.0457804204010858</v>
       </c>
       <c r="J14">
-        <v>0.336626457589482</v>
+        <v>0.05589658710099796</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.325460127842106</v>
+        <v>124.6539663333333</v>
       </c>
       <c r="N14">
-        <v>0.325460127842106</v>
+        <v>373.961899</v>
       </c>
       <c r="O14">
-        <v>0.001469862473972854</v>
+        <v>0.5513659638308388</v>
       </c>
       <c r="P14">
-        <v>0.001469862473972854</v>
+        <v>0.5516673283636507</v>
       </c>
       <c r="Q14">
-        <v>10.22658785863599</v>
+        <v>538.6533481259704</v>
       </c>
       <c r="R14">
-        <v>10.22658785863599</v>
+        <v>4847.880133133734</v>
       </c>
       <c r="S14">
-        <v>0.0004947945977571939</v>
+        <v>0.02524176561902567</v>
       </c>
       <c r="T14">
-        <v>0.0004947945977571939</v>
+        <v>0.03083632087065364</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,122 +1340,122 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.4219376930784</v>
+        <v>4.321189</v>
       </c>
       <c r="H15">
-        <v>31.4219376930784</v>
+        <v>12.963567</v>
       </c>
       <c r="I15">
-        <v>0.336626457589482</v>
+        <v>0.0457804204010858</v>
       </c>
       <c r="J15">
-        <v>0.336626457589482</v>
+        <v>0.05589658710099796</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>120.713024122564</v>
+        <v>100.6318613333333</v>
       </c>
       <c r="N15">
-        <v>120.713024122564</v>
+        <v>301.895584</v>
       </c>
       <c r="O15">
-        <v>0.5451713715408358</v>
+        <v>0.4451120557830784</v>
       </c>
       <c r="P15">
-        <v>0.5451713715408358</v>
+        <v>0.4453553442621279</v>
       </c>
       <c r="Q15">
-        <v>3793.037122722276</v>
+        <v>434.8492922431254</v>
       </c>
       <c r="R15">
-        <v>3793.037122722276</v>
+        <v>3913.643630188128</v>
       </c>
       <c r="S15">
-        <v>0.1835191075809909</v>
+        <v>0.02037741703934088</v>
       </c>
       <c r="T15">
-        <v>0.1835191075809909</v>
+        <v>0.02489384379144296</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.4219376930784</v>
+        <v>4.321189</v>
       </c>
       <c r="H16">
-        <v>31.4219376930784</v>
+        <v>12.963567</v>
       </c>
       <c r="I16">
-        <v>0.336626457589482</v>
+        <v>0.0457804204010858</v>
       </c>
       <c r="J16">
-        <v>0.336626457589482</v>
+        <v>0.05589658710099796</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>100.383678438344</v>
+        <v>0.4121773333333333</v>
       </c>
       <c r="N16">
-        <v>100.383678438344</v>
+        <v>1.236532</v>
       </c>
       <c r="O16">
-        <v>0.4533587659851912</v>
+        <v>0.001823131339879293</v>
       </c>
       <c r="P16">
-        <v>0.4533587659851912</v>
+        <v>0.001824127823450168</v>
       </c>
       <c r="Q16">
-        <v>3154.249689291663</v>
+        <v>1.781096158849333</v>
       </c>
       <c r="R16">
-        <v>3154.249689291663</v>
+        <v>16.029865429644</v>
       </c>
       <c r="S16">
-        <v>0.1526125554107338</v>
+        <v>8.346371918606886E-05</v>
       </c>
       <c r="T16">
-        <v>0.1526125554107338</v>
+        <v>0.0001019625197668362</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.539166913485054</v>
+        <v>6.262834666666667</v>
       </c>
       <c r="H17">
-        <v>0.539166913485054</v>
+        <v>18.788504</v>
       </c>
       <c r="I17">
-        <v>0.005776150723381665</v>
+        <v>0.06635099828831695</v>
       </c>
       <c r="J17">
-        <v>0.005776150723381665</v>
+        <v>0.08101267578078228</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.325460127842106</v>
+        <v>0.370512</v>
       </c>
       <c r="N17">
-        <v>0.325460127842106</v>
+        <v>0.741024</v>
       </c>
       <c r="O17">
-        <v>0.001469862473972854</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P17">
-        <v>0.001469862473972854</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q17">
-        <v>0.1754773325910794</v>
+        <v>2.320455398016</v>
       </c>
       <c r="R17">
-        <v>0.1754773325910794</v>
+        <v>13.922732388096</v>
       </c>
       <c r="S17">
-        <v>8.490147192309863E-06</v>
+        <v>0.0001087385634748249</v>
       </c>
       <c r="T17">
-        <v>8.490147192309863E-06</v>
+        <v>8.855950054978943E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,861 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.539166913485054</v>
+        <v>6.262834666666667</v>
       </c>
       <c r="H18">
-        <v>0.539166913485054</v>
+        <v>18.788504</v>
       </c>
       <c r="I18">
-        <v>0.005776150723381665</v>
+        <v>0.06635099828831695</v>
       </c>
       <c r="J18">
-        <v>0.005776150723381665</v>
+        <v>0.08101267578078228</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>120.713024122564</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N18">
-        <v>120.713024122564</v>
+        <v>0.040702</v>
       </c>
       <c r="O18">
-        <v>0.5451713715408358</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P18">
-        <v>0.5451713715408358</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q18">
-        <v>65.08446863360969</v>
+        <v>0.08496996553422223</v>
       </c>
       <c r="R18">
-        <v>65.08446863360969</v>
+        <v>0.764729689808</v>
       </c>
       <c r="S18">
-        <v>0.003148992012092574</v>
+        <v>3.981766681917927E-06</v>
       </c>
       <c r="T18">
-        <v>0.003148992012092574</v>
+        <v>4.864280767394213E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.262834666666667</v>
+      </c>
+      <c r="H19">
+        <v>18.788504</v>
+      </c>
+      <c r="I19">
+        <v>0.06635099828831695</v>
+      </c>
+      <c r="J19">
+        <v>0.08101267578078228</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N19">
+        <v>373.961899</v>
+      </c>
+      <c r="O19">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P19">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q19">
+        <v>780.6871816898996</v>
+      </c>
+      <c r="R19">
+        <v>7026.184635209096</v>
+      </c>
+      <c r="S19">
+        <v>0.03658368212237621</v>
+      </c>
+      <c r="T19">
+        <v>0.04469204641157479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.262834666666667</v>
+      </c>
+      <c r="H20">
+        <v>18.788504</v>
+      </c>
+      <c r="I20">
+        <v>0.06635099828831695</v>
+      </c>
+      <c r="J20">
+        <v>0.08101267578078228</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N20">
+        <v>301.895584</v>
+      </c>
+      <c r="O20">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P20">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q20">
+        <v>630.2407097295928</v>
+      </c>
+      <c r="R20">
+        <v>5672.166387566335</v>
+      </c>
+      <c r="S20">
+        <v>0.02953362925137228</v>
+      </c>
+      <c r="T20">
+        <v>0.03607942811194644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.262834666666667</v>
+      </c>
+      <c r="H21">
+        <v>18.788504</v>
+      </c>
+      <c r="I21">
+        <v>0.06635099828831695</v>
+      </c>
+      <c r="J21">
+        <v>0.08101267578078228</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.236532</v>
+      </c>
+      <c r="O21">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P21">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q21">
+        <v>2.581398492014222</v>
+      </c>
+      <c r="R21">
+        <v>23.232586428128</v>
+      </c>
+      <c r="S21">
+        <v>0.0001209665844117079</v>
+      </c>
+      <c r="T21">
+        <v>0.0001477774759438725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>31.89049033333333</v>
+      </c>
+      <c r="H22">
+        <v>95.671471</v>
+      </c>
+      <c r="I22">
+        <v>0.3378607263548905</v>
+      </c>
+      <c r="J22">
+        <v>0.4125183070239926</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.370512</v>
+      </c>
+      <c r="N22">
+        <v>0.741024</v>
+      </c>
+      <c r="O22">
+        <v>0.001638838393995521</v>
+      </c>
+      <c r="P22">
+        <v>0.00109315609805839</v>
+      </c>
+      <c r="Q22">
+        <v>11.815809354384</v>
+      </c>
+      <c r="R22">
+        <v>70.89485612630401</v>
+      </c>
+      <c r="S22">
+        <v>0.0005536991301736088</v>
+      </c>
+      <c r="T22">
+        <v>0.0004509469028840009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>31.89049033333333</v>
+      </c>
+      <c r="H23">
+        <v>95.671471</v>
+      </c>
+      <c r="I23">
+        <v>0.3378607263548905</v>
+      </c>
+      <c r="J23">
+        <v>0.4125183070239926</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.040702</v>
+      </c>
+      <c r="O23">
+        <v>6.001065220776088E-05</v>
+      </c>
+      <c r="P23">
+        <v>6.004345271296559E-05</v>
+      </c>
+      <c r="Q23">
+        <v>0.4326689125157778</v>
+      </c>
+      <c r="R23">
+        <v>3.894020212642</v>
+      </c>
+      <c r="S23">
+        <v>2.02752425439448E-05</v>
+      </c>
+      <c r="T23">
+        <v>2.476902346102772E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>31.89049033333333</v>
+      </c>
+      <c r="H24">
+        <v>95.671471</v>
+      </c>
+      <c r="I24">
+        <v>0.3378607263548905</v>
+      </c>
+      <c r="J24">
+        <v>0.4125183070239926</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N24">
+        <v>373.961899</v>
+      </c>
+      <c r="O24">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P24">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q24">
+        <v>3975.276108364826</v>
+      </c>
+      <c r="R24">
+        <v>35777.48497528343</v>
+      </c>
+      <c r="S24">
+        <v>0.1862849050272515</v>
+      </c>
+      <c r="T24">
+        <v>0.2275728723370222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>31.89049033333333</v>
+      </c>
+      <c r="H25">
+        <v>95.671471</v>
+      </c>
+      <c r="I25">
+        <v>0.3378607263548905</v>
+      </c>
+      <c r="J25">
+        <v>0.4125183070239926</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N25">
+        <v>301.895584</v>
+      </c>
+      <c r="O25">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P25">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q25">
+        <v>3209.199401076007</v>
+      </c>
+      <c r="R25">
+        <v>28882.79460968406</v>
+      </c>
+      <c r="S25">
+        <v>0.1503858824761894</v>
+      </c>
+      <c r="T25">
+        <v>0.1837172326391004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>31.89049033333333</v>
+      </c>
+      <c r="H26">
+        <v>95.671471</v>
+      </c>
+      <c r="I26">
+        <v>0.3378607263548905</v>
+      </c>
+      <c r="J26">
+        <v>0.4125183070239926</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N26">
+        <v>1.236532</v>
+      </c>
+      <c r="O26">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P26">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q26">
+        <v>13.14453726428578</v>
+      </c>
+      <c r="R26">
+        <v>118.300835378572</v>
+      </c>
+      <c r="S26">
+        <v>0.0006159644787319825</v>
+      </c>
+      <c r="T26">
+        <v>0.0007524861215250239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.608629</v>
+      </c>
+      <c r="H27">
+        <v>1.217258</v>
+      </c>
+      <c r="I27">
+        <v>0.006448061283200629</v>
+      </c>
+      <c r="J27">
+        <v>0.005248599233635816</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.370512</v>
+      </c>
+      <c r="N27">
+        <v>0.741024</v>
+      </c>
+      <c r="O27">
+        <v>0.001638838393995521</v>
+      </c>
+      <c r="P27">
+        <v>0.00109315609805839</v>
+      </c>
+      <c r="Q27">
+        <v>0.225504348048</v>
+      </c>
+      <c r="R27">
+        <v>0.9020173921919999</v>
+      </c>
+      <c r="S27">
+        <v>1.056733039774522E-05</v>
+      </c>
+      <c r="T27">
+        <v>5.737538258513588E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.608629</v>
+      </c>
+      <c r="H28">
+        <v>1.217258</v>
+      </c>
+      <c r="I28">
+        <v>0.006448061283200629</v>
+      </c>
+      <c r="J28">
+        <v>0.005248599233635816</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.040702</v>
+      </c>
+      <c r="O28">
+        <v>6.001065220776088E-05</v>
+      </c>
+      <c r="P28">
+        <v>6.004345271296559E-05</v>
+      </c>
+      <c r="Q28">
+        <v>0.008257472519333333</v>
+      </c>
+      <c r="R28">
+        <v>0.049544835116</v>
+      </c>
+      <c r="S28">
+        <v>3.869523630804813E-07</v>
+      </c>
+      <c r="T28">
+        <v>3.151440198941195E-07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.608629</v>
+      </c>
+      <c r="H29">
+        <v>1.217258</v>
+      </c>
+      <c r="I29">
+        <v>0.006448061283200629</v>
+      </c>
+      <c r="J29">
+        <v>0.005248599233635816</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N29">
+        <v>373.961899</v>
+      </c>
+      <c r="O29">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P29">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q29">
+        <v>75.86801887549034</v>
+      </c>
+      <c r="R29">
+        <v>455.208113252942</v>
+      </c>
+      <c r="S29">
+        <v>0.00355524152425223</v>
+      </c>
+      <c r="T29">
+        <v>0.002895480716871375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.539166913485054</v>
-      </c>
-      <c r="H19">
-        <v>0.539166913485054</v>
-      </c>
-      <c r="I19">
-        <v>0.005776150723381665</v>
-      </c>
-      <c r="J19">
-        <v>0.005776150723381665</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>100.383678438344</v>
-      </c>
-      <c r="N19">
-        <v>100.383678438344</v>
-      </c>
-      <c r="O19">
-        <v>0.4533587659851912</v>
-      </c>
-      <c r="P19">
-        <v>0.4533587659851912</v>
-      </c>
-      <c r="Q19">
-        <v>54.1235580678781</v>
-      </c>
-      <c r="R19">
-        <v>54.1235580678781</v>
-      </c>
-      <c r="S19">
-        <v>0.002618668564096781</v>
-      </c>
-      <c r="T19">
-        <v>0.002618668564096781</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.608629</v>
+      </c>
+      <c r="H30">
+        <v>1.217258</v>
+      </c>
+      <c r="I30">
+        <v>0.006448061283200629</v>
+      </c>
+      <c r="J30">
+        <v>0.005248599233635816</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N30">
+        <v>301.895584</v>
+      </c>
+      <c r="O30">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P30">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q30">
+        <v>61.24746913144533</v>
+      </c>
+      <c r="R30">
+        <v>367.4848147886719</v>
+      </c>
+      <c r="S30">
+        <v>0.002870109813580707</v>
+      </c>
+      <c r="T30">
+        <v>0.002337491718589819</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.608629</v>
+      </c>
+      <c r="H31">
+        <v>1.217258</v>
+      </c>
+      <c r="I31">
+        <v>0.006448061283200629</v>
+      </c>
+      <c r="J31">
+        <v>0.005248599233635816</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N31">
+        <v>1.236532</v>
+      </c>
+      <c r="O31">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P31">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q31">
+        <v>0.2508630782093333</v>
+      </c>
+      <c r="R31">
+        <v>1.505178469256</v>
+      </c>
+      <c r="S31">
+        <v>1.175566260686536E-05</v>
+      </c>
+      <c r="T31">
+        <v>9.574115896214323E-06</v>
       </c>
     </row>
   </sheetData>
